--- a/LArIAT_Pin_Mapping_06262018.xlsx
+++ b/LArIAT_Pin_Mapping_06262018.xlsx
@@ -686,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,8 +697,8 @@
   <dimension ref="A1:K499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A483" sqref="A483:N492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
